--- a/Excel Project.xlsx
+++ b/Excel Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/611E52011173B9C9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8E70EC18-CAB6-4C60-BD5C-3F9BA99E0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7354B86-FD61-0A49-ADAA-DF6CF4C1B1EF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{8E70EC18-CAB6-4C60-BD5C-3F9BA99E0D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1CF17B-ED42-2C49-A62B-98B3A5A18C30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3491,7 +3491,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.17007094042489973"/>
+          <c:y val="0.15755760706936398"/>
           <c:w val="0.93557833089311859"/>
           <c:h val="0.67324654583271426"/>
         </c:manualLayout>
@@ -4346,7 +4346,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1294096432561686"/>
+          <c:y val="3.2570502758024242E-2"/>
+          <c:w val="0.87059035674383134"/>
+          <c:h val="0.70625511967196275"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6752,16 +6762,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>289416</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62235</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>29535</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>439617</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>62233</xdr:rowOff>
+      <xdr:rowOff>62234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6776,8 +6786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2711276" y="1125491"/>
-          <a:ext cx="23353259" cy="14531161"/>
+          <a:off x="993206" y="455898"/>
+          <a:ext cx="25953590" cy="15367362"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6818,8 +6828,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407051</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>4217</xdr:rowOff>
     </xdr:from>
@@ -6842,8 +6852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3632790" y="2839566"/>
-          <a:ext cx="10311570" cy="5046247"/>
+          <a:off x="2214359" y="2869858"/>
+          <a:ext cx="11660329" cy="5099259"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6890,8 +6900,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>130256</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>88604</xdr:rowOff>
     </xdr:to>
@@ -6908,8 +6918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14748386" y="2949677"/>
-          <a:ext cx="10446775" cy="5250540"/>
+          <a:off x="14458461" y="2865641"/>
+          <a:ext cx="10974103" cy="5103476"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6950,14 +6960,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>602434</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>20483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>594033</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
@@ -6974,8 +6984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14748386" y="8500806"/>
-          <a:ext cx="10426292" cy="6431935"/>
+          <a:off x="14458460" y="8259201"/>
+          <a:ext cx="10843847" cy="6248106"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7016,16 +7026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533305</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>18662</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>184353</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>5250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7034,14 +7044,17 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9080611-3D89-4CE8-A9D7-FE1CBD4910F6}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{91244C6A-CE97-4EB0-A952-771238C6D2FF}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3605886" y="8664677"/>
-          <a:ext cx="10546647" cy="6268063"/>
+          <a:off x="2378400" y="8885725"/>
+          <a:ext cx="12004350" cy="6550025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7112,9 +7125,7 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="001C1F"/>
-        </a:solidFill>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7348,10 +7359,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488461</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -7372,8 +7383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="3084287"/>
-          <a:ext cx="6123214" cy="725713"/>
+          <a:off x="2898205" y="3109872"/>
+          <a:ext cx="7343205" cy="651282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7440,16 +7451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>162821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537308</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>65129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7464,8 +7475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263571" y="8708572"/>
-          <a:ext cx="5481735" cy="544285"/>
+          <a:off x="3256410" y="8759744"/>
+          <a:ext cx="6317436" cy="618718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7525,15 +7536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>320741</xdr:colOff>
+      <xdr:colOff>511241</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>426877</xdr:colOff>
+      <xdr:colOff>617377</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7542,14 +7553,17 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808745AA-75E6-4008-9047-3E7217BF426F}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EA40B343-E7D3-42B8-9BE3-095835AAD833}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14851904" y="3012558"/>
-          <a:ext cx="4344392" cy="886048"/>
+          <a:off x="15370241" y="3333750"/>
+          <a:ext cx="4440011" cy="952501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7612,16 +7626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466075</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>160378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>158752</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7630,14 +7644,17 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE86EB9-D760-413C-AEFF-88C9B22BC98E}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{808745AA-75E6-4008-9047-3E7217BF426F}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15227041" y="8527143"/>
-          <a:ext cx="4872653" cy="884466"/>
+          <a:off x="15325075" y="9113878"/>
+          <a:ext cx="4725050" cy="1159283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7794,14 +7811,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292212</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227949</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>107830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>569751</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276795</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>177208</xdr:rowOff>
     </xdr:to>
@@ -7833,16 +7850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260512</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>100173</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457441</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>341922</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>130256</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7870,13 +7887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>320740</xdr:colOff>
+      <xdr:colOff>244230</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>609080</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>6644</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7886,6 +7903,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2660454-1F90-2588-37A1-75CA7BDDB59C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B3B8600-5F61-6CA0-16FE-B5FE8FD76F61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7905,16 +7925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>81174</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>502328</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>46464</xdr:rowOff>
+      <xdr:rowOff>14714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>392478</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>437436</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>92927</xdr:rowOff>
+      <xdr:rowOff>61178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7922,6 +7942,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3A1DEB-6207-D955-54AA-2AC14395099B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2660454-1F90-2588-37A1-75CA7BDDB59C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9497,7 +9520,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A53995E-CC13-44FB-B68E-D0DF76809EBB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="44">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A53995E-CC13-44FB-B68E-D0DF76809EBB}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="44">
   <location ref="A34:D48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -9795,7 +9818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FD4D1A3-CC0E-4736-BEC8-CEDB3A427890}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FD4D1A3-CC0E-4736-BEC8-CEDB3A427890}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10015,7 +10038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41DBE1EC-1659-4B59-8635-0746D529FE1E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41DBE1EC-1659-4B59-8635-0746D529FE1E}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A54:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10180,7 +10203,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DE0DC1A-E95E-447B-A23F-EE85A6EC1553}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DE0DC1A-E95E-447B-A23F-EE85A6EC1553}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A11:C22" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10410,7 +10433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7220AB46-C740-4B42-A440-3B12DFC219EF}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7220AB46-C740-4B42-A440-3B12DFC219EF}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="22">
   <location ref="A25:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -15540,8 +15563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C3F8D-2D2F-43F9-B064-4529562F6147}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="41" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT51" sqref="AT51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="39" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD106" sqref="AD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15550,6 +15573,7 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>